--- a/WEBMES_V2/wwwroot/DownloadableFiles/Magazine_Template.xlsx
+++ b/WEBMES_V2/wwwroot/DownloadableFiles/Magazine_Template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27618"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12FF09F6-D002-49DA-8A01-843363C3CB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E64F3C56-8E6C-4EB0-B0C4-D62D5A7BB51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Magazine" sheetId="1" r:id="rId1"/>
-    <sheet name="MaintenanceList" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="MaintenanceList" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="289">
   <si>
     <t>MagazineCode</t>
   </si>
@@ -52,132 +53,180 @@
     <t>LifeSpanDay</t>
   </si>
   <si>
+    <t>ON Semiconductor</t>
+  </si>
+  <si>
+    <t>TQFN 3x3</t>
+  </si>
+  <si>
+    <t>3 LDS</t>
+  </si>
+  <si>
+    <t>TQFN 4x4</t>
+  </si>
+  <si>
+    <t>24 LDS</t>
+  </si>
+  <si>
+    <t>QFN 4x4</t>
+  </si>
+  <si>
+    <t>2L</t>
+  </si>
+  <si>
+    <t>IPM-GMM</t>
+  </si>
+  <si>
+    <t>7L PSOIC</t>
+  </si>
+  <si>
+    <t>SOIC EIAJ</t>
+  </si>
+  <si>
+    <t>14 LDS</t>
+  </si>
+  <si>
+    <t>20 LDS</t>
+  </si>
+  <si>
+    <t>SOIC SON</t>
+  </si>
+  <si>
+    <t>16 LDS</t>
+  </si>
+  <si>
+    <t>TSSOP</t>
+  </si>
+  <si>
+    <t>16LDS</t>
+  </si>
+  <si>
+    <t>28 LDS</t>
+  </si>
+  <si>
+    <t>48 LDS</t>
+  </si>
+  <si>
+    <t>56 LDS</t>
+  </si>
+  <si>
+    <t>SOICN</t>
+  </si>
+  <si>
+    <t>TSSOP COPPER</t>
+  </si>
+  <si>
+    <t>TSSOP COPPER HDLF</t>
+  </si>
+  <si>
+    <t>TSSOP COPPER Auto</t>
+  </si>
+  <si>
+    <t>SOIC COPPER</t>
+  </si>
+  <si>
+    <t>SOIC COPPER Auto</t>
+  </si>
+  <si>
+    <t>TSSOP CU</t>
+  </si>
+  <si>
+    <t>PackageList</t>
+  </si>
+  <si>
+    <t>LeadType</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>PDIP</t>
+  </si>
+  <si>
+    <t>16L</t>
+  </si>
+  <si>
+    <t>ATEC</t>
+  </si>
+  <si>
+    <t>WAFER</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>DSOSL</t>
+  </si>
+  <si>
+    <t>acpQFN 4x4mm</t>
+  </si>
+  <si>
+    <t>IXYS Semiconductor</t>
+  </si>
+  <si>
+    <t>acpQFN 5x5mm</t>
+  </si>
+  <si>
+    <t>10 LDS</t>
+  </si>
+  <si>
+    <t>SANA Semiconductor</t>
+  </si>
+  <si>
+    <t>acpQFN 6x6mm</t>
+  </si>
+  <si>
+    <t>12 LDS</t>
+  </si>
+  <si>
+    <t>PICOR</t>
+  </si>
+  <si>
+    <t>15 LDS</t>
+  </si>
+  <si>
+    <t>SENCIO</t>
+  </si>
+  <si>
+    <t>34 LDS</t>
+  </si>
+  <si>
+    <t>Fairchild Semiconductors</t>
+  </si>
+  <si>
+    <t>DFN 2.5x2.5mm</t>
+  </si>
+  <si>
+    <t>VISHAY</t>
+  </si>
+  <si>
+    <t>DFN 3x6</t>
+  </si>
+  <si>
+    <t>INFINEON TECHNOLOGIES</t>
+  </si>
+  <si>
+    <t>TQFN 2.5x2.5</t>
+  </si>
+  <si>
+    <t>Allegro</t>
+  </si>
+  <si>
+    <t>GENTEX</t>
+  </si>
+  <si>
+    <t>VICOR</t>
+  </si>
+  <si>
+    <t>TQFN 5x5</t>
+  </si>
+  <si>
+    <t>32 LDS</t>
+  </si>
+  <si>
     <t>MELEXIS</t>
   </si>
   <si>
-    <t>TQFN 3x3</t>
-  </si>
-  <si>
-    <t>3 LDS</t>
-  </si>
-  <si>
-    <t>TQFN 4x4</t>
-  </si>
-  <si>
-    <t>24 LDS</t>
-  </si>
-  <si>
-    <t>QFN 4x4</t>
-  </si>
-  <si>
-    <t>2L</t>
-  </si>
-  <si>
-    <t>IPM-GMM</t>
-  </si>
-  <si>
-    <t>7L PSOIC</t>
-  </si>
-  <si>
-    <t>PackageList</t>
-  </si>
-  <si>
-    <t>LeadType</t>
-  </si>
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>PDIP</t>
-  </si>
-  <si>
-    <t>16L</t>
-  </si>
-  <si>
-    <t>ATEC</t>
-  </si>
-  <si>
-    <t>WAFER</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>DSOSL</t>
-  </si>
-  <si>
-    <t>acpQFN 4x4mm</t>
-  </si>
-  <si>
-    <t>IXYS Semiconductor</t>
-  </si>
-  <si>
-    <t>acpQFN 5x5mm</t>
-  </si>
-  <si>
-    <t>10 LDS</t>
-  </si>
-  <si>
-    <t>SANA Semiconductor</t>
-  </si>
-  <si>
-    <t>acpQFN 6x6mm</t>
-  </si>
-  <si>
-    <t>12 LDS</t>
-  </si>
-  <si>
-    <t>PICOR</t>
-  </si>
-  <si>
-    <t>15 LDS</t>
-  </si>
-  <si>
-    <t>SENCIO</t>
-  </si>
-  <si>
-    <t>34 LDS</t>
-  </si>
-  <si>
-    <t>Fairchild Semiconductors</t>
-  </si>
-  <si>
-    <t>DFN 2.5x2.5mm</t>
-  </si>
-  <si>
-    <t>VISHAY</t>
-  </si>
-  <si>
-    <t>DFN 3x6</t>
-  </si>
-  <si>
-    <t>14 LDS</t>
-  </si>
-  <si>
-    <t>INFINEON TECHNOLOGIES</t>
-  </si>
-  <si>
-    <t>TQFN 2.5x2.5</t>
-  </si>
-  <si>
-    <t>16 LDS</t>
-  </si>
-  <si>
-    <t>Allegro</t>
-  </si>
-  <si>
-    <t>GENTEX</t>
-  </si>
-  <si>
-    <t>VICOR</t>
-  </si>
-  <si>
-    <t>TQFN 5x5</t>
-  </si>
-  <si>
-    <t>32 LDS</t>
-  </si>
-  <si>
     <t>OMC</t>
   </si>
   <si>
@@ -193,21 +242,12 @@
     <t>MMIC 16L</t>
   </si>
   <si>
-    <t>ON Semiconductor</t>
-  </si>
-  <si>
     <t>MMIC 4L</t>
   </si>
   <si>
     <t>PANASONIC</t>
   </si>
   <si>
-    <t>TSSOP</t>
-  </si>
-  <si>
-    <t>48 LDS</t>
-  </si>
-  <si>
     <t>COMDEV</t>
   </si>
   <si>
@@ -523,9 +563,6 @@
     <t>SOIC-SON</t>
   </si>
   <si>
-    <t>20 LDS</t>
-  </si>
-  <si>
     <t>10 Pin Module</t>
   </si>
   <si>
@@ -733,15 +770,6 @@
     <t>SC70</t>
   </si>
   <si>
-    <t>SOIC EIAJ</t>
-  </si>
-  <si>
-    <t>SOIC SON</t>
-  </si>
-  <si>
-    <t>SOICN</t>
-  </si>
-  <si>
     <t>16L HD</t>
   </si>
   <si>
@@ -754,9 +782,6 @@
     <t>16 LD</t>
   </si>
   <si>
-    <t>28 LDS</t>
-  </si>
-  <si>
     <t>14L HD</t>
   </si>
   <si>
@@ -764,9 +789,6 @@
   </si>
   <si>
     <t>56L</t>
-  </si>
-  <si>
-    <t>56 LDS</t>
   </si>
   <si>
     <t>14 LD</t>
@@ -884,7 +906,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -900,8 +922,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F4E78"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -912,6 +951,12 @@
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.749992370372631"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -927,7 +972,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -937,6 +982,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1271,10 +1319,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1308,9 +1356,6 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1111</v>
-      </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -1328,9 +1373,6 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3">
-        <v>2222</v>
-      </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -1348,9 +1390,6 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4">
-        <v>3333</v>
-      </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -1368,9 +1407,6 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5">
-        <v>4444</v>
-      </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -1384,6 +1420,329 @@
         <v>3250</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>2240</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>2240</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>2240</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>1920</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>6720</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>6720</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>6720</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13">
+        <v>2240</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>2240</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2240</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1600</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>1600</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <v>960</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>6720</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>6720</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>5760</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22">
+        <v>5760</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23">
+        <v>960</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24">
+        <v>960</v>
+      </c>
+      <c r="F24">
         <v>1</v>
       </c>
     </row>
@@ -1427,10 +1786,145 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899A7765-BD3F-4B16-8253-28CE6FBCBFC7}">
+  <dimension ref="G3:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="7:8">
+      <c r="G3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="7:8">
+      <c r="G4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="7:8">
+      <c r="G5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="7:8">
+      <c r="G6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="7:8">
+      <c r="G7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="7:8">
+      <c r="G8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="7:8">
+      <c r="G9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="7:8">
+      <c r="G10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="7:8">
+      <c r="G11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="7:8">
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="7:8">
+      <c r="G13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="7:8">
+      <c r="G14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="7:8">
+      <c r="G15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="7:8">
+      <c r="G16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8">
+      <c r="G17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70AC4D37-00A3-4A82-A160-7AB3DAD80556}">
   <dimension ref="A1:D402"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
@@ -1444,13 +1938,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -1458,13 +1952,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -1472,13 +1966,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -1486,13 +1980,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -1500,13 +1994,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -1514,13 +2008,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -1528,13 +2022,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -1542,13 +2036,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -1556,13 +2050,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D9">
         <v>11</v>
@@ -1570,13 +2064,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D10">
         <v>12</v>
@@ -1584,13 +2078,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D11">
         <v>13</v>
@@ -1601,10 +2095,10 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D12">
         <v>14</v>
@@ -1618,7 +2112,7 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D13">
         <v>15</v>
@@ -1626,13 +2120,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="D14">
         <v>16</v>
@@ -1640,13 +2134,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D15">
         <v>17</v>
@@ -1654,13 +2148,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>18</v>
@@ -1668,13 +2162,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D17">
         <v>19</v>
@@ -1682,13 +2176,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D18">
         <v>20</v>
@@ -1696,13 +2190,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D19">
         <v>21</v>
@@ -1710,13 +2204,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="D20">
         <v>22</v>
@@ -1724,13 +2218,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D21">
         <v>23</v>
@@ -1738,13 +2232,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D22">
         <v>24</v>
@@ -1752,13 +2246,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D23">
         <v>25</v>
@@ -1766,13 +2260,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D24">
         <v>26</v>
@@ -1780,13 +2274,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D25">
         <v>27</v>
@@ -1794,13 +2288,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D26">
         <v>28</v>
@@ -1808,13 +2302,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D27">
         <v>29</v>
@@ -1822,13 +2316,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D28">
         <v>30</v>
@@ -1836,13 +2330,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D29">
         <v>31</v>
@@ -1850,13 +2344,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D30">
         <v>32</v>
@@ -1864,13 +2358,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D31">
         <v>33</v>
@@ -1878,13 +2372,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D32">
         <v>34</v>
@@ -1892,13 +2386,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D33">
         <v>35</v>
@@ -1906,13 +2400,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D34">
         <v>36</v>
@@ -1920,13 +2414,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D35">
         <v>37</v>
@@ -1934,13 +2428,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D36">
         <v>38</v>
@@ -1948,13 +2442,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="D37">
         <v>39</v>
@@ -1962,13 +2456,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D38">
         <v>40</v>
@@ -1976,13 +2470,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D39">
         <v>41</v>
@@ -1993,10 +2487,10 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D40">
         <v>42</v>
@@ -2004,13 +2498,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D41">
         <v>43</v>
@@ -2018,13 +2512,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D42">
         <v>45</v>
@@ -2032,13 +2526,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B43" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D43">
         <v>46</v>
@@ -2046,13 +2540,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D44">
         <v>47</v>
@@ -2060,13 +2554,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D45">
         <v>49</v>
@@ -2074,13 +2568,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C46" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="D46">
         <v>50</v>
@@ -2088,13 +2582,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B47" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C47" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D47">
         <v>51</v>
@@ -2102,13 +2596,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C48" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D48">
         <v>52</v>
@@ -2116,13 +2610,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C49" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="D49">
         <v>53</v>
@@ -2130,13 +2624,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="D50">
         <v>54</v>
@@ -2144,13 +2638,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C51" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D51">
         <v>55</v>
@@ -2158,13 +2652,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="D52">
         <v>56</v>
@@ -2172,13 +2666,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B53" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C53" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D53">
         <v>57</v>
@@ -2186,13 +2680,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C54" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="D54">
         <v>58</v>
@@ -2200,13 +2694,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B55" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C55" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D55">
         <v>59</v>
@@ -2214,13 +2708,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C56" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D56">
         <v>60</v>
@@ -2228,13 +2722,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C57" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D57">
         <v>61</v>
@@ -2242,13 +2736,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B58" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C58" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D58">
         <v>62</v>
@@ -2256,13 +2750,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B59" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C59" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="D59">
         <v>63</v>
@@ -2270,13 +2764,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C60" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D60">
         <v>64</v>
@@ -2284,13 +2778,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B61" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C61" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="D61">
         <v>65</v>
@@ -2298,13 +2792,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C62" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="D62">
         <v>66</v>
@@ -2312,13 +2806,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D63">
         <v>67</v>
@@ -2326,13 +2820,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C64" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D64">
         <v>68</v>
@@ -2340,13 +2834,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C65" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="D65">
         <v>69</v>
@@ -2354,13 +2848,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C66" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D66">
         <v>70</v>
@@ -2368,13 +2862,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C67" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="D67">
         <v>71</v>
@@ -2382,13 +2876,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B68" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="D68">
         <v>72</v>
@@ -2396,13 +2890,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="B69" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C69" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D69">
         <v>73</v>
@@ -2410,13 +2904,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="B70" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C70" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="D70">
         <v>74</v>
@@ -2424,13 +2918,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B71" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="D71">
         <v>75</v>
@@ -2438,13 +2932,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B72" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C72" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D72">
         <v>76</v>
@@ -2452,13 +2946,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B73" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D73">
         <v>77</v>
@@ -2466,13 +2960,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B74" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C74" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="D74">
         <v>78</v>
@@ -2480,13 +2974,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B75" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C75" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D75">
         <v>79</v>
@@ -2494,13 +2988,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C76" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="D76">
         <v>80</v>
@@ -2508,13 +3002,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B77" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C77" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="D77">
         <v>81</v>
@@ -2522,13 +3016,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C78" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="D78">
         <v>82</v>
@@ -2536,71 +3030,71 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B79" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B80" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B81" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B82" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B83" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B87" t="s">
         <v>8</v>
@@ -2608,151 +3102,151 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B89" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="B92" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B93" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B94" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B95" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B96" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B97" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B98" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B99" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B100" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B101" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B102" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B103" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B104" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B105" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B106" t="s">
         <v>8</v>
@@ -2760,23 +3254,23 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B107" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B108" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
@@ -2784,316 +3278,316 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B110" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B113" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B115" t="s">
-        <v>163</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>163</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="B118" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B119" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B120" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B121" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B122" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B123" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B124" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B125" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B126" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B127" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B128" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B129" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="B130" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="B131" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="B132" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B133" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B134" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B135" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B136" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B137" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B138" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B139" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B140" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B141" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B142" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B143" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B144" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B145" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B146" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B147" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B148" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B149" t="s">
         <v>14</v>
@@ -3101,79 +3595,79 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B150" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B151" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B152" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B153" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B154" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B155" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B156" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B157" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B158" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B159">
         <v>16</v>
@@ -3181,135 +3675,135 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B160" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B161" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B162" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B163" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B164" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B165" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B166" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B167" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B168" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B169" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B170" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B171" t="s">
-        <v>163</v>
+        <v>17</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B172" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B173" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B174" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="B175" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B176" t="s">
         <v>8</v>
@@ -3317,7 +3811,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B177" t="s">
         <v>8</v>
@@ -3325,83 +3819,83 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="B178" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B179" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B181" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="B183" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="B186" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B187" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="B188" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B189" t="s">
         <v>10</v>
@@ -3409,26 +3903,26 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B190" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="B191" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="B192" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3438,254 +3932,254 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="B194" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="B195" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B196" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B197" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B198" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B199" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B200" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B201" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="B204" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="B205" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B206" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B207" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B208" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="B209" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B210" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B211" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="B212" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B213" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="B214" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B215" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B216" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B217" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B218" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B219" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B220" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B221" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B222" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B223" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B225" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B226" t="s">
         <v>10</v>
@@ -3693,15 +4187,15 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B227" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B228" t="s">
         <v>10</v>
@@ -3709,15 +4203,15 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B229" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="B230" t="s">
         <v>8</v>
@@ -3725,55 +4219,55 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B231" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B232" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B233" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B234" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B235" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B236" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B237" t="s">
         <v>10</v>
@@ -3781,15 +4275,15 @@
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B238" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B239" t="s">
         <v>8</v>
@@ -3797,31 +4291,31 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B240" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="B241" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="B242" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="B243" t="s">
         <v>8</v>
@@ -3829,15 +4323,15 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="B244" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B245" t="s">
         <v>8</v>
@@ -3845,50 +4339,50 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B246" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B247" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="B248" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="B249" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B250" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B251" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3896,103 +4390,103 @@
         <v>11</v>
       </c>
       <c r="B252" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="B253" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B254" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B255" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="B256" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="B257" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="B258" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="B259" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="B260" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B261" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B262" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B263" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B264" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -4005,204 +4499,204 @@
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="B266" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="B267" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="B268" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="B269" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B271" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B272" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B273" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B274" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B275" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="B276" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B277" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>233</v>
+        <v>15</v>
       </c>
       <c r="B278" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>233</v>
+        <v>15</v>
       </c>
       <c r="B279" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>233</v>
+        <v>15</v>
       </c>
       <c r="B280" t="s">
-        <v>163</v>
+        <v>17</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>233</v>
+        <v>15</v>
       </c>
       <c r="B281" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" t="s">
-        <v>233</v>
+        <v>15</v>
       </c>
       <c r="B282" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>233</v>
+        <v>15</v>
       </c>
       <c r="B283" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B284" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>234</v>
+        <v>18</v>
       </c>
       <c r="B285" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>234</v>
+        <v>18</v>
       </c>
       <c r="B286" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>235</v>
+        <v>25</v>
       </c>
       <c r="B287" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B288" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B289" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B290" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B291" t="s">
         <v>8</v>
@@ -4210,151 +4704,151 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B292" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B293" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B294" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B295" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B296" t="s">
-        <v>240</v>
+        <v>22</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B297" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B298" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B299" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B300" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B301" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B302" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B303" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B304" t="s">
-        <v>244</v>
+        <v>24</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B305" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B306" t="s">
-        <v>163</v>
+        <v>17</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B307" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B308" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B309" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B310" t="s">
         <v>10</v>
@@ -4362,15 +4856,15 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B311" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B312" s="4">
         <v>42529</v>
@@ -4378,148 +4872,148 @@
     </row>
     <row r="313" spans="1:2">
       <c r="A313" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B313" t="s">
-        <v>244</v>
+        <v>24</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B314" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B315" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B316" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B317" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B318" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B319" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B320" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B321" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B322" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B323" t="s">
-        <v>163</v>
+        <v>17</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B324" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="B326" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="B327" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B328" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B329" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B330" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="B331" t="s">
         <v>8</v>
@@ -4527,79 +5021,79 @@
     </row>
     <row r="332" spans="1:2">
       <c r="A332" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="B332" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B333" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B334" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B335" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B336" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B337" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B338" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B339" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B340" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B341" t="s">
         <v>8</v>
@@ -4607,15 +5101,15 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B342" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B343" t="s">
         <v>8</v>
@@ -4623,178 +5117,178 @@
     </row>
     <row r="344" spans="1:2">
       <c r="A344" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B344" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B345" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B346" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B347" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B348" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B349" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B350" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B351" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B352" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B353" t="s">
-        <v>163</v>
+        <v>17</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B354" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="B355" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B356" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B357" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="B358" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B359" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B360" t="s">
-        <v>240</v>
+        <v>22</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B361" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B362" t="s">
-        <v>240</v>
+        <v>22</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B363" t="s">
-        <v>240</v>
+        <v>22</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B364" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="B365" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4802,217 +5296,217 @@
         <v>7</v>
       </c>
       <c r="B366" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B367" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="B368" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="B369" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B370" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B371" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B372" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B373" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B374" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="B375" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="B376" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="B377" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B378" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="B379" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="B380" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="B382" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="B383" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B384" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B385" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="B386" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="B387" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B388" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="B389" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="B390" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B391" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="B392" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="B393" t="s">
         <v>8</v>
@@ -5020,74 +5514,74 @@
     </row>
     <row r="394" spans="1:2">
       <c r="A394" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="B394" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B395" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B396" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B397" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B398" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="B399" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B400" t="s">
-        <v>240</v>
+        <v>22</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B401" t="s">
-        <v>163</v>
+        <v>17</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B402" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
